--- a/src/test/resources/sampleUpload.xlsx
+++ b/src/test/resources/sampleUpload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freelife/company/backoffice/tis-api/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0905695-B954-7845-A49D-81A0908B634E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944F4536-1BAA-EA45-9122-02A92A586781}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36140" yWindow="5040" windowWidth="35720" windowHeight="25520" xr2:uid="{2AD59B47-EA87-E647-B100-118A2D3F07F5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,27 @@
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>123.123.123.123</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>255.255.255.255</t>
+  </si>
+  <si>
+    <t>2.2.2.</t>
+  </si>
+  <si>
+    <t>999.999.999.999</t>
+  </si>
+  <si>
+    <t>9.9.9.9</t>
   </si>
 </sst>
 </file>
@@ -216,7 +237,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -240,6 +261,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -282,7 +310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -308,6 +336,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,22 +659,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5258AA1D-AB2B-9E4C-86DA-73136A150989}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,20 +696,23 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -697,20 +734,23 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="1">
         <v>1.1234</v>
       </c>
-      <c r="I2" s="7">
+      <c r="J2" s="7">
         <v>43748</v>
       </c>
-      <c r="J2" s="8">
+      <c r="K2" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -732,18 +772,21 @@
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I3" s="7">
+      <c r="J3" s="7">
         <v>43748</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -765,18 +808,21 @@
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I4" s="7">
+      <c r="J4" s="7">
         <v>43748</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -798,18 +844,21 @@
       <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="7">
         <v>43748</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -831,18 +880,21 @@
       <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="7">
         <v>43748</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -864,18 +916,19 @@
       <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="9"/>
+      <c r="I7" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="7">
         <v>43748</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -897,18 +950,21 @@
       <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="7">
         <v>43748</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -930,18 +986,21 @@
       <c r="G9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J9" s="7">
         <v>43748</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -963,18 +1022,21 @@
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="9">
+        <v>123.123</v>
+      </c>
+      <c r="I10" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J10" s="7">
         <v>43748</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -996,18 +1058,21 @@
       <c r="G11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="10">
+        <v>123123000000</v>
+      </c>
+      <c r="I11" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I11" s="7">
+      <c r="J11" s="7">
         <v>43748</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1029,16 +1094,19 @@
       <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="9">
+        <v>255</v>
+      </c>
+      <c r="I12" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I12" s="7">
+      <c r="J12" s="7">
         <v>43748</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/test/resources/sampleUpload.xlsx
+++ b/src/test/resources/sampleUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freelife/company/backoffice/tis-api/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freelife/old_company/springboot-maven-skeleton/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944F4536-1BAA-EA45-9122-02A92A586781}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36932E6C-C8E4-C944-BD21-9D69A583B321}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36140" yWindow="5040" windowWidth="35720" windowHeight="25520" xr2:uid="{2AD59B47-EA87-E647-B100-118A2D3F07F5}"/>
+    <workbookView xWindow="-35840" yWindow="22100" windowWidth="35720" windowHeight="21900" xr2:uid="{2AD59B47-EA87-E647-B100-118A2D3F07F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,134 +59,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010-1111-2222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>홍길동1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>홍길동2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb@aaa.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc@aaa.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddd@aaa.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eee@aaa.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fff@aaa.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ggg@aaa.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hhh@aaa.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iii@aaa.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jjj@aaa.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>010-1111-1111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010-1111-3333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-1111-4444</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-1111-5555</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-1111-6666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-1111-7777</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-1111-8888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-1111-9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-1111-1010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,21 +91,6 @@
   </si>
   <si>
     <t>123.123.123.123</t>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-  </si>
-  <si>
-    <t>255.255.255.255</t>
-  </si>
-  <si>
-    <t>2.2.2.</t>
-  </si>
-  <si>
-    <t>999.999.999.999</t>
-  </si>
-  <si>
-    <t>9.9.9.9</t>
   </si>
 </sst>
 </file>
@@ -310,7 +175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -326,9 +191,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -339,9 +201,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,16 +518,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5258AA1D-AB2B-9E4C-86DA-73136A150989}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" customWidth="1"/>
     <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.7109375" customWidth="1"/>
     <col min="12" max="12" width="23.42578125" customWidth="1"/>
@@ -696,34 +556,34 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>43</v>
+      <c r="H1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="E2" s="3">
         <v>1111</v>
@@ -731,397 +591,29 @@
       <c r="F2" s="4">
         <v>2222</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>46</v>
+      <c r="G2" s="1">
+        <v>8.7236487213242E+16</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="1">
         <v>1.1234</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>43748</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>43534.271180555559</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1111</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2222</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1234.1234549999999</v>
-      </c>
-      <c r="J3" s="7">
-        <v>43748</v>
-      </c>
-      <c r="K3" s="8">
-        <v>43534.271180555559</v>
-      </c>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1111</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2222</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1234.1234549999999</v>
-      </c>
-      <c r="J4" s="7">
-        <v>43748</v>
-      </c>
-      <c r="K4" s="8">
-        <v>43534.271180555559</v>
-      </c>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
+      <c r="L2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1111</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2222</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1234.1234549999999</v>
-      </c>
-      <c r="J5" s="7">
-        <v>43748</v>
-      </c>
-      <c r="K5" s="8">
-        <v>43534.271180555559</v>
-      </c>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1111</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2222</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1234.1234549999999</v>
-      </c>
-      <c r="J6" s="7">
-        <v>43748</v>
-      </c>
-      <c r="K6" s="8">
-        <v>43534.271180555559</v>
-      </c>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1111</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2222</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="1">
-        <v>1234.1234549999999</v>
-      </c>
-      <c r="J7" s="7">
-        <v>43748</v>
-      </c>
-      <c r="K7" s="8">
-        <v>43534.271180555559</v>
-      </c>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1111</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2222</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1234.1234549999999</v>
-      </c>
-      <c r="J8" s="7">
-        <v>43748</v>
-      </c>
-      <c r="K8" s="8">
-        <v>43534.271180555559</v>
-      </c>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1111</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2222</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1234.1234549999999</v>
-      </c>
-      <c r="J9" s="7">
-        <v>43748</v>
-      </c>
-      <c r="K9" s="8">
-        <v>43534.271180555559</v>
-      </c>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1111</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2222</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="9">
-        <v>123.123</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1234.1234549999999</v>
-      </c>
-      <c r="J10" s="7">
-        <v>43748</v>
-      </c>
-      <c r="K10" s="8">
-        <v>43534.271180555559</v>
-      </c>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1111</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2222</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="10">
-        <v>123123000000</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1234.1234549999999</v>
-      </c>
-      <c r="J11" s="7">
-        <v>43748</v>
-      </c>
-      <c r="K11" s="8">
-        <v>43534.271180555559</v>
-      </c>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1111</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2222</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="9">
-        <v>255</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1234.1234549999999</v>
-      </c>
-      <c r="J12" s="7">
-        <v>43748</v>
-      </c>
-      <c r="K12" s="8">
-        <v>43534.271180555559</v>
-      </c>
-      <c r="L12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{0D9589C4-F5D9-AE4B-913D-2CA3AA4BD111}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{65CB1657-74C2-D748-BB2D-17B655B6BF3F}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{A76AFAA3-18DB-2B47-B99B-2B95162EAEFD}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{B982EEA1-E0DB-0241-80B1-76A5ED5F75A1}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{7888C6DF-160E-EB49-B585-31C0308C368B}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{EBB31B8A-F9C5-7B4D-8E93-D26BAC2BA923}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{F0ACDF20-F92D-4941-8114-EC26962D81EB}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{A179CDE7-8C5C-074F-8E0B-2D911ED235AF}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{AE7AFF4A-14F1-104E-A1F3-E556A20F1856}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{D5EB0BC1-65D9-D245-ABB1-010232FED42C}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{5D12AFAA-7095-EF41-8A60-D8A4650FE2DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
